--- a/zil.xlsx
+++ b/zil.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mike\src\flowzillow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\src\flowzillow\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="0" windowWidth="23685" windowHeight="13350" activeTab="2"/>
+    <workbookView xWindow="7980" yWindow="0" windowWidth="23685" windowHeight="13350" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="zil-2-10-16" sheetId="1" r:id="rId1"/>
@@ -192,6 +192,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -625,7 +629,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -668,14 +672,20 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -703,6 +713,7 @@
     <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Comma" xfId="42" builtinId="3"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
@@ -730,6 +741,1182 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average Zillow estimate of random properties</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>  SoCal Coast</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$7:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>42410</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42411</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42412</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42413</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42419</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42420</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42425</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$8:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2663090.8571428573</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2663090.8571428573</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2839419.3846200001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2840065.8461500001</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>2581898.3333299998</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>2334335.6666700002</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>2329879.9166700002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>  Flosum CA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$7:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>42410</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42411</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42412</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42413</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42419</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42420</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42425</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$9:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="2">
+                  <c:v>312626.285714</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>312616.142857</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>312503.428571</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>312561</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>312452.571429</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>  Miami Beach</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$7:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>42410</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42411</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42412</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42413</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42419</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42420</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42425</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3640242.8666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3640242.8666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3638379.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3640109.8666699999</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>3625709.9333299999</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>3623052.7333300002</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>3631550.8666699999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="356574768"/>
+        <c:axId val="356572808"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="356574768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-4200000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="356572808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="356572808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Zestimate $</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="356574768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2549,35 +3736,52 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:D22"/>
+  <dimension ref="A4:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="4" width="14.42578125" customWidth="1"/>
+    <col min="2" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="5" width="12.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="2" customWidth="1"/>
+    <col min="8" max="18" width="12.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
-        <v>42645</v>
-      </c>
-      <c r="C7" s="1">
-        <v>42676</v>
-      </c>
-      <c r="D7" s="1">
-        <v>42706</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="4">
+        <v>42410</v>
+      </c>
+      <c r="C7" s="4">
+        <v>42411</v>
+      </c>
+      <c r="D7" s="4">
+        <v>42412</v>
+      </c>
+      <c r="E7" s="5">
+        <v>42413</v>
+      </c>
+      <c r="F7" s="1">
+        <v>42419</v>
+      </c>
+      <c r="G7" s="1">
+        <v>42420</v>
+      </c>
+      <c r="H7" s="1">
+        <v>42425</v>
+      </c>
+      <c r="O7"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>54</v>
       </c>
@@ -2590,8 +3794,22 @@
       <c r="D8" s="2">
         <v>2839419.3846200001</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="2">
+        <v>2840065.8461500001</v>
+      </c>
+      <c r="F8" s="6">
+        <v>2581898.3333299998</v>
+      </c>
+      <c r="G8" s="6">
+        <v>2334335.6666700002</v>
+      </c>
+      <c r="H8" s="6">
+        <v>2329879.9166700002</v>
+      </c>
+      <c r="M8"/>
+      <c r="O8"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>52</v>
       </c>
@@ -2600,8 +3818,22 @@
       <c r="D9" s="2">
         <v>312626.285714</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="2">
+        <v>312616.142857</v>
+      </c>
+      <c r="F9" s="6">
+        <v>312503.428571</v>
+      </c>
+      <c r="G9" s="6">
+        <v>312561</v>
+      </c>
+      <c r="H9" s="6">
+        <v>312452.571429</v>
+      </c>
+      <c r="M9"/>
+      <c r="O9"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -2614,30 +3846,59 @@
       <c r="D10" s="2">
         <v>3638379.4</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="2">
+        <v>3640109.8666699999</v>
+      </c>
+      <c r="F10" s="6">
+        <v>3625709.9333299999</v>
+      </c>
+      <c r="G10" s="6">
+        <v>3623052.7333300002</v>
+      </c>
+      <c r="H10" s="6">
+        <v>3631550.8666699999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N11"/>
+      <c r="O11"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="M12" s="1"/>
+      <c r="N12"/>
+      <c r="O12"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="M13" s="1"/>
+      <c r="N13"/>
+      <c r="O13"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
@@ -2660,5 +3921,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>